--- a/aircraftReferenceData.xlsx
+++ b/aircraftReferenceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/kajbreeman_tudelft_nl/Documents/AE/Year 2/Project/System Design/Code/SystemsDesign-24-25-A07/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4425d37b6cb081d/Documents/GitHub/SystemsDesign-24-25-A07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35702733-9550-4AAE-8945-D444F8AF3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{35702733-9550-4AAE-8945-D444F8AF3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAED2FE-5FD2-409B-B9BD-4ADC2CE2802E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D50AFEF6-7D0F-4305-86EB-5D885E54A857}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D50AFEF6-7D0F-4305-86EB-5D885E54A857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Aircraft</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>A340-500</t>
+  </si>
+  <si>
+    <t>Diameter</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,11 +195,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -205,6 +228,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E083DD99-284F-4D49-A72E-AC283ECC4E2D}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +615,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -634,8 +662,11 @@
       <c r="N2" s="1">
         <v>0.85</v>
       </c>
+      <c r="O2" s="8">
+        <v>5.96</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -678,8 +709,11 @@
       <c r="N3" s="1">
         <v>0.81</v>
       </c>
+      <c r="O3" s="8">
+        <v>5.64</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -722,8 +756,11 @@
       <c r="N4" s="1">
         <v>0.84</v>
       </c>
+      <c r="O4" s="8">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -766,8 +803,11 @@
       <c r="N5" s="1">
         <v>0.84</v>
       </c>
+      <c r="O5" s="8">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -810,8 +850,11 @@
       <c r="N6" s="1">
         <v>0.85</v>
       </c>
+      <c r="O6">
+        <v>5.94</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -854,8 +897,11 @@
       <c r="N7" s="1">
         <v>0.85</v>
       </c>
+      <c r="O7" s="9">
+        <v>5.94</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -898,8 +944,11 @@
       <c r="N8" s="1">
         <v>0.83</v>
       </c>
+      <c r="O8" s="9">
+        <v>5.64</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -941,6 +990,9 @@
       </c>
       <c r="N9" s="1">
         <v>0.83</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>
